--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_198.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_198.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,696 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(19.36, 22.38)]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(7.02, 15.1)]</t>
+          <t>[('0:01:11.640000', '0:01:19.220000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[('0:00:37.995918', '0:00:52.299410')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:09.162102', '0:00:17.463236')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2116689280868385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A:min', 'A:min/b7']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4714285714285714</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D:min', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.767437, 21.242721)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(73.618888, 99.567188)]</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
-        </is>
-      </c>
+          <t>[('0:00:01.014823', '0:00:13.657911')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1369047619047619</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['G', 'G', 'D/3']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(61.3, 70.46)]</t>
+          <t>[['G', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[('0:01:18.061859', '0:01:21.614512')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:52.711123', '0:00:59.224321')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(3.34, 6.82)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:01:23.100000', '0:01:30.020000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5042016806722689</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['A', 'E', 'B', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.74, 27.08)]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(2.58, 7.08)]</t>
+          <t>[('0:00:23.861000', '0:00:54.729000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:41.895260', '0:00:59.802639')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:09.900000', '0:00:26.980000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.76, 15.8)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(17.36, 20.12)]</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:40.380000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(4.16, 8.8)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(9.56, 25.14)]</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:07.760000', '0:01:24.780000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1625</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Eb', 'F', 'Bb']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(65.382154, 74.101247)]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(44.917324, 48.272607)]</t>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>schubert-winterreise_137</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(14.9, 28.9)]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.56, 6.3)]</t>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.34, 6.82)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(94.68, 110.76)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(10.56, 16.4)]</t>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.44, 6.66)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(41.32, 48.94)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
